--- a/all_test.xlsx
+++ b/all_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59D32E5-EFAB-47CD-A167-AD5FC80389DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCC4DB-A0A5-420A-989A-F2AEBF945628}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="16">
   <si>
     <t>Map</t>
   </si>
@@ -77,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +93,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14996795556505021"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +147,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -130,11 +229,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,18 +252,541 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="11">
+    <cellStyle name="60% - Accent2" xfId="7" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="8" builtinId="40"/>
+    <cellStyle name="60% - Accent6" xfId="9" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="10" xr:uid="{EC706F9C-8FAF-462C-8A0A-67B94813A72B}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -186,6 +819,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -630,9 +1269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,3143 +1285,3143 @@
     <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>37</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="11">
         <v>0.88</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="11">
         <v>5.1520000000000001</v>
       </c>
       <c r="I3" s="1" t="str">
         <f>[1]A_stara!D2</f>
         <v>Completed</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
         <f>[1]A_stara!E2</f>
         <v>37</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="9">
         <f>[1]A_stara!F2</f>
         <v>0.71099999999999997</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="9">
         <f>[1]A_stara!G2</f>
         <v>4.984</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="11">
         <v>60</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="11">
         <v>8.4359999999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="11">
         <v>25.265999999999998</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>[1]A_stara!D3</f>
         <v>Completed</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <f>[1]A_stara!E3</f>
         <v>60</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="9">
         <f>[1]A_stara!F3</f>
         <v>7.7290000000000001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <f>[1]A_stara!G3</f>
         <v>23.675999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="11">
         <v>69</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="11">
         <v>21.44</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="11">
         <v>43.746000000000002</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>[1]A_stara!D4</f>
         <v>Completed</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="9">
         <f>[1]A_stara!E4</f>
         <v>69</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="9">
         <f>[1]A_stara!F4</f>
         <v>18.113</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="9">
         <f>[1]A_stara!G4</f>
         <v>39.203000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>71</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="11">
         <v>3.3079999999999998</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="11">
         <v>16.562000000000001</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>[1]A_stara!D5</f>
         <v>Completed</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="9">
         <f>[1]A_stara!E5</f>
         <v>71</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="9">
         <f>[1]A_stara!F5</f>
         <v>3.548</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="9">
         <f>[1]A_stara!G5</f>
         <v>15.417999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
         <v>104</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>100.669</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="11">
         <v>104</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>[1]A_stara!D6</f>
         <v>Completed</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="9">
         <f>[1]A_stara!E6</f>
         <v>104</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="9">
         <f>[1]A_stara!F6</f>
         <v>95.263000000000005</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="9">
         <f>[1]A_stara!G6</f>
         <v>98.926000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="str">
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6" t="str">
         <f>[1]A_stara!D7</f>
         <v>Time Limit Exceeded</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="6" t="str">
         <f>[1]A_stara!E7</f>
         <v>???</v>
       </c>
-      <c r="K8" s="1" t="str">
+      <c r="K8" s="6" t="str">
         <f>[1]A_stara!F7</f>
         <v>???</v>
       </c>
-      <c r="L8" s="1" t="str">
+      <c r="L8" s="6" t="str">
         <f>[1]A_stara!G7</f>
         <v xml:space="preserve">??? </v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>61</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="9">
         <v>61.414000000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="9">
         <v>64.343999999999994</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>[1]A_stara!D8</f>
         <v>Completed</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="9">
         <f>[1]A_stara!E8</f>
         <v>61</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="9">
         <f>[1]A_stara!F8</f>
         <v>60.567</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="9">
         <f>[1]A_stara!G8</f>
         <v>61.988</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9">
         <v>93</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="9">
         <v>541.42499999999995</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="9">
         <v>245.99600000000001</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>[1]A_stara!D9</f>
         <v>Completed</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="9">
         <f>[1]A_stara!E9</f>
         <v>93</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="9">
         <f>[1]A_stara!F9</f>
         <v>495.75700000000001</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="9">
         <f>[1]A_stara!G9</f>
         <v>221.078</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="9">
         <v>85</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <v>18.097999999999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="9">
         <v>39.527000000000001</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>[1]A_stara!D10</f>
         <v>Completed</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="9">
         <f>[1]A_stara!E10</f>
         <v>85</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="9">
         <f>[1]A_stara!F10</f>
         <v>18.771000000000001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="9">
         <f>[1]A_stara!G10</f>
         <v>38.890999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
         <v>3</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="9">
         <v>102</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="9">
         <v>96.712000000000003</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="9">
         <v>108.039</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>[1]A_stara!D11</f>
         <v>Completed</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="9">
         <f>[1]A_stara!E11</f>
         <v>102</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="9">
         <f>[1]A_stara!F11</f>
         <v>102.017</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="9">
         <f>[1]A_stara!G11</f>
         <v>107.211</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <v>74</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="9">
         <v>83.192999999999998</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>75.941000000000003</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>[1]A_stara!D12</f>
         <v>Completed</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="9">
         <f>[1]A_stara!E12</f>
         <v>74</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="9">
         <f>[1]A_stara!F12</f>
         <v>87.406000000000006</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <f>[1]A_stara!G12</f>
         <v>75.968999999999994</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>26</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>29</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>29</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>82</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="9">
         <v>85.741</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="9">
         <v>58.98</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="9">
         <v>82</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="9">
         <v>62.179000000000002</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="9">
         <v>59.277000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>24</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="9">
         <v>114</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="9">
         <v>442.83800000000002</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="9">
         <v>201.16</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="9">
         <v>65</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="9">
         <v>40.677</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="9">
         <v>44.140999999999998</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="9">
         <v>65</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="9">
         <v>31.251000000000001</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="9">
         <v>38.957000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="9">
         <v>110</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="9">
         <v>327.11500000000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="9">
         <v>176.39099999999999</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="9">
         <v>110</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="9">
         <v>294.46899999999999</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="9">
         <v>175.21899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="9">
         <v>72</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="9">
         <v>107.485</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="9">
         <v>70.551000000000002</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="9">
         <v>72</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="9">
         <v>91.974999999999994</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="9">
         <v>70.272999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="9">
         <v>71</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="9">
         <v>106.663</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="9">
         <v>84.061999999999998</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="9">
         <v>71</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="9">
         <v>101.56100000000001</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="9">
         <v>74.722999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="9">
         <v>99</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="9">
         <v>563.31200000000001</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="9">
         <v>238.84399999999999</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="9">
         <v>99</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="9">
         <v>557.23500000000001</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="9">
         <v>225.65199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>35</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="7">
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="9">
         <v>81</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="9">
         <v>103.782</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="9">
         <v>98.522999999999996</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="9">
         <v>81</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="9">
         <v>86.581999999999994</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="9">
         <v>84.558999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="6">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="1" t="s">
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="7">
         <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="9">
         <v>103</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="9">
         <v>189.14099999999999</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="9">
         <v>108.586</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="9">
         <v>103</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="9">
         <v>141.453</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="9">
         <v>112.395</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="6">
         <v>28</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="7">
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="9">
         <v>58</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="9">
         <v>66.834999999999994</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="9">
         <v>47.933999999999997</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="9">
         <v>58</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="9">
         <v>60.329000000000001</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="9">
         <v>58.503999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="6">
         <v>30</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="9">
         <v>74</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="9">
         <v>5.2990000000000004</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="9">
         <v>3.5230000000000001</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="9">
         <v>74</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="9">
         <v>5.5060000000000002</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="9">
         <v>23.827999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="7">
         <v>2</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>19</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="9">
         <v>91</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="9">
         <v>5.3330000000000002</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="9">
         <v>15.051</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="9">
         <v>91</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="9">
         <v>5.5869999999999997</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="9">
         <v>16.59</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="6">
         <v>3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="6">
         <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="9">
         <v>94</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="9">
         <v>119.352</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="9">
         <v>108.89100000000001</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9">
         <v>94</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="9">
         <v>72.528999999999996</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="9">
         <v>85.414000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="6">
         <v>3</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="6">
         <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="9">
         <v>101</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="9">
         <v>190.001</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="9">
         <v>150.047</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="9">
         <v>101</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="9">
         <v>153.27799999999999</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="9">
         <v>143.58600000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>35</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="6">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="6">
         <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="9">
         <v>88</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="9">
         <v>11.425000000000001</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="9">
         <v>6.3120000000000003</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="9">
         <v>88</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="9">
         <v>10.755000000000001</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="9">
         <v>23.238</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <v>3</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="6">
         <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="9">
         <v>72</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="9">
         <v>41.314999999999998</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="9">
         <v>34.953000000000003</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="9">
         <v>72</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="9">
         <v>39.966999999999999</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="9">
         <v>49.448999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>37</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="6">
         <v>22</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="9">
         <v>96</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="9">
         <v>48.753</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="9">
         <v>42.805</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="I39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="9">
         <v>96</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="9">
         <v>52.558</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="9">
         <v>61.284999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>38</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="6">
         <v>3</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="6">
         <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="9">
         <v>50</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="9">
         <v>53.753999999999998</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="9">
         <v>33.448999999999998</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="I40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="9">
         <v>50</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="9">
         <v>48.694000000000003</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="9">
         <v>47.273000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>39</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
         <v>3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="6">
         <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="9">
         <v>100</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="9">
         <v>432.07799999999997</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="9">
         <v>196.25800000000001</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="I41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="9">
         <v>100</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="9">
         <v>379.48700000000002</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="9">
         <v>191.285</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>40</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="6">
         <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="9">
         <v>84</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="9">
         <v>50.146999999999998</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="9">
         <v>47.476999999999997</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="9">
         <v>84</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="9">
         <v>45.865000000000002</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="9">
         <v>59.609000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="8">
         <v>4</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="8">
         <v>24</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="1" t="s">
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="8">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="8">
         <v>4</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="8">
         <v>48</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="1" t="s">
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>3</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <v>3</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="6">
         <v>28</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="1" t="s">
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="8">
         <v>4</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="8">
         <v>4</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="8">
         <v>21</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="8">
         <v>5</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="8">
         <v>6</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="8">
         <v>33</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="1" t="s">
+      <c r="E47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="8">
         <v>6</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="8">
         <v>5</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="8">
         <v>25</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L48" s="1" t="s">
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1">
+      <c r="B49" s="6">
+        <v>7</v>
+      </c>
+      <c r="C49" s="6">
         <v>3</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="6">
         <v>23</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="9">
         <v>110</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="9">
         <v>282.28399999999999</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="9">
         <v>182.16399999999999</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="I49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="9">
         <v>110</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="9">
         <v>290.37299999999999</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="9">
         <v>180.61699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="1">
-        <v>8</v>
-      </c>
-      <c r="C50" s="1">
+      <c r="B50" s="8">
+        <v>8</v>
+      </c>
+      <c r="C50" s="8">
         <v>4</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="8">
         <v>24</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="1">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51" s="8">
+        <v>9</v>
+      </c>
+      <c r="C51" s="8">
         <v>4</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="8">
         <v>28</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L51" s="1" t="s">
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="6">
+        <v>10</v>
+      </c>
+      <c r="C52" s="6">
         <v>3</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="6">
         <v>28</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="1" t="s">
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="8">
         <v>11</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="8">
         <v>5</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="8">
         <v>26</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" s="1" t="s">
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="8">
         <v>12</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="8">
         <v>6</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="8">
         <v>24</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="1" t="s">
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="8">
         <v>13</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="8">
         <v>4</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="8">
         <v>24</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" s="1" t="s">
+      <c r="E55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="8">
         <v>14</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="8">
         <v>4</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="8">
         <v>29</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="1" t="s">
+      <c r="E56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="8">
         <v>15</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="8">
         <v>4</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="8">
         <v>33</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="1" t="s">
+      <c r="E57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="8">
         <v>16</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="8">
         <v>4</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="8">
         <v>30</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L58" s="1" t="s">
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="8">
         <v>17</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="8">
         <v>4</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="8">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="E59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="8">
         <v>18</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="8">
         <v>4</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="8">
         <v>28</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="8">
         <v>19</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="8">
         <v>6</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="8">
         <v>30</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61" s="1" t="s">
+      <c r="E61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="8">
         <v>20</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="8">
         <v>4</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="8">
         <v>34</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="8">
         <v>21</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="8">
         <v>5</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="8">
         <v>29</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="1" t="s">
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="8">
         <v>22</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="8">
         <v>4</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="8">
         <v>36</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="1" t="s">
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="8">
         <v>23</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="8">
         <v>4</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="8">
         <v>22</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="E65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="9">
         <v>91</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="9">
         <v>507.86099999999999</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65" s="9">
         <v>220.34800000000001</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="8">
         <v>24</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="8">
         <v>5</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="8">
         <v>34</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66" s="1" t="s">
+      <c r="E66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="8">
         <v>25</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="8">
         <v>4</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="8">
         <v>28</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="E67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="8">
         <v>26</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="8">
         <v>5</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="8">
         <v>38</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="8">
         <v>27</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="8">
         <v>4</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="8">
         <v>30</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L69" s="1" t="s">
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>28</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="6">
         <v>3</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="6">
         <v>20</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="9">
         <v>73</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="9">
         <v>39.423999999999999</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="9">
         <v>25.710999999999999</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="9">
         <v>73</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="9">
         <v>36.200000000000003</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70" s="9">
         <v>36.578000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="8">
         <v>29</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="8">
         <v>4</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="8">
         <v>21</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="9">
         <v>83</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="9">
         <v>92.91</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="9">
         <v>67.016000000000005</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="9">
         <v>83</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="9">
         <v>108.137</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71" s="9">
         <v>81.27</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="8">
         <v>30</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="8">
         <v>4</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="8">
         <v>31</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L72" s="1" t="s">
+      <c r="E72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="8">
         <v>31</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="8">
         <v>4</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="8">
         <v>27</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="9">
         <v>101</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="9">
         <v>469.54599999999999</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="9">
         <v>221.066</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="9">
         <v>101</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="9">
         <v>420.13600000000002</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="9">
         <v>215.27699999999999</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="8">
         <v>32</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="8">
         <v>4</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="8">
         <v>27</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L74" s="1" t="s">
+      <c r="E74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="8">
         <v>33</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="8">
         <v>4</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="8">
         <v>26</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L75" s="1" t="s">
+      <c r="E75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="8">
         <v>34</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="8">
         <v>4</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="8">
         <v>25</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L76" s="1" t="s">
+      <c r="E76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="8">
         <v>35</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="8">
         <v>5</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="8">
         <v>22</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="1" t="s">
+      <c r="E77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="9">
         <v>70</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="9">
         <v>379.66699999999997</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77" s="9">
         <v>167.578</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="8">
         <v>36</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="8">
         <v>4</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="8">
         <v>23</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78" s="1" t="s">
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="8">
         <v>37</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="8">
         <v>4</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="8">
         <v>30</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="1" t="s">
+      <c r="E79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="8">
         <v>38</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="8">
         <v>4</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="8">
         <v>31</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L80" s="1" t="s">
+      <c r="E80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="8">
         <v>39</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="8">
         <v>4</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="8">
         <v>24</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L81" s="1" t="s">
+      <c r="E81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>40</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="6">
         <v>3</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="6">
         <v>26</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="E82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3796,14 +4435,41 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E82">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"Time Limit Exceeded"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I82">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"Time Limit Exceeded"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C82">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
